--- a/代理/西航石化城市合伙人收益_重庆.xlsx
+++ b/代理/西航石化城市合伙人收益_重庆.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="8月" sheetId="1" r:id="rId1"/>
     <sheet name="9月" sheetId="4" r:id="rId2"/>
     <sheet name="10月" sheetId="5" r:id="rId3"/>
+    <sheet name="11月" sheetId="7" r:id="rId4"/>
+    <sheet name="12月" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="44">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +239,66 @@
       </rPr>
       <t xml:space="preserve">
 1. 本月重庆代理目标为150吨，实际加油量为152.33吨，考评超出预期，望再接再厉！
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/1-11/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/1-12/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 本月重庆代理目标为100吨，实际加油量为148.9吨，考评超出预期，望再接再厉！
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1. 本月重庆代理目标为100吨，实际加油量为165.2吨，考评超出预期，望再接再厉！
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1605,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1898,7 +1960,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="31"/>
     </row>
-    <row r="17" spans="6:13" ht="30.75" customHeight="1" thickBot="1">
+    <row r="17" spans="6:13" ht="60.75" customHeight="1" thickBot="1">
       <c r="F17" s="17" t="s">
         <v>39</v>
       </c>
@@ -1930,4 +1992,623 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:13" ht="22.5">
+      <c r="F1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="6:13" ht="16.5">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="6:13" ht="16.5">
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43040</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="6:13" ht="16.5">
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="6:13" ht="16.5">
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>165.2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="6:13" ht="16.5">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="6:13" ht="16.5">
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.29</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <f>I5*1190</f>
+        <v>196588</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="12">
+        <f>I7*K7</f>
+        <v>1236538.52</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" ht="16.5">
+      <c r="F8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4">
+        <f>M7*G8</f>
+        <v>37096.155599999998</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="6:13" ht="16.5">
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="6:13" ht="16.5">
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="6:13" ht="16.5">
+      <c r="F11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="6:13" ht="16.5">
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="6:13" ht="16.5">
+      <c r="F13" s="13"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="12">
+        <f>I8+I11</f>
+        <v>37096.155599999998</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" ht="16.5">
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12">
+        <f>M13*G14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" ht="16.5">
+      <c r="F15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="4">
+        <f>M13*G15</f>
+        <v>7419.2311200000004</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="9">
+        <f>M13-I15</f>
+        <v>29676.924479999998</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="14">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" ht="16.5">
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="6:13" ht="60.75" customHeight="1" thickBot="1">
+      <c r="F17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F6:M6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:13" ht="22.5">
+      <c r="F1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="6:13" ht="16.5">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="6:13" ht="16.5">
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43070</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="6:13" ht="16.5">
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="33"/>
+      <c r="K4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="6:13" ht="16.5">
+      <c r="F5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>148.9</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="6:13" ht="16.5">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="6:13" ht="16.5">
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2">
+        <f>I5*1190</f>
+        <v>177191</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="12">
+        <f>I7*K7</f>
+        <v>1125162.8499999999</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" ht="16.5">
+      <c r="F8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4">
+        <f>M7*G8</f>
+        <v>33754.885499999997</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="6:13" ht="16.5">
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="6:13" ht="16.5">
+      <c r="F10" s="13"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="12" t="e">
+        <f>I8+#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" ht="16.5">
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="12" t="e">
+        <f>M10*G11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" ht="16.5">
+      <c r="F12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="4" t="e">
+        <f>M10*G12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="9" t="e">
+        <f>M10-I12</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="14">
+        <v>42983</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" ht="16.5">
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="6:13" ht="60.75" customHeight="1" thickBot="1">
+      <c r="F14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F6:M6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>